--- a/_output/AM/UI Results/UI Result - p10(a) VS p10(b).xlsx
+++ b/_output/AM/UI Results/UI Result - p10(a) VS p10(b).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Feature</t>
   </si>
@@ -28,6 +28,12 @@
     <t>Chi Square</t>
   </si>
   <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
     <t>Is Significant</t>
   </si>
   <si>
@@ -134,6 +140,216 @@
   </si>
   <si>
     <t>b1</t>
+  </si>
+  <si>
+    <t>[707  45] ; [ 76 142]</t>
+  </si>
+  <si>
+    <t>[632 122] ; [107 118]</t>
+  </si>
+  <si>
+    <t>[641 109] ; [133  92]</t>
+  </si>
+  <si>
+    <t>[646 102] ; [141  81]</t>
+  </si>
+  <si>
+    <t>[677  77] ; [159  66]</t>
+  </si>
+  <si>
+    <t>[714  33] ; [182  41]</t>
+  </si>
+  <si>
+    <t>[415 330] ; [ 65 156]</t>
+  </si>
+  <si>
+    <t>[585 164] ; [123 100]</t>
+  </si>
+  <si>
+    <t>[490 244] ; [ 93 129]</t>
+  </si>
+  <si>
+    <t>[713  36] ; [182  41]</t>
+  </si>
+  <si>
+    <t>[466 284] ; [ 85 139]</t>
+  </si>
+  <si>
+    <t>[352 398] ; [ 51 171]</t>
+  </si>
+  <si>
+    <t>[508 229] ; [103 119]</t>
+  </si>
+  <si>
+    <t>[391 360] ; [ 70 154]</t>
+  </si>
+  <si>
+    <t>[398 349] ; [ 72 150]</t>
+  </si>
+  <si>
+    <t>[370 351] ; [ 65 146]</t>
+  </si>
+  <si>
+    <t>[407 325] ; [ 81 141]</t>
+  </si>
+  <si>
+    <t>[564 190] ; [131  94]</t>
+  </si>
+  <si>
+    <t>[262 462] ; [ 41 176]</t>
+  </si>
+  <si>
+    <t>[702  42] ; [188  33]</t>
+  </si>
+  <si>
+    <t>[589 165] ; [141  82]</t>
+  </si>
+  <si>
+    <t>[416 304] ; [ 89 130]</t>
+  </si>
+  <si>
+    <t>[601 149] ; [148  75]</t>
+  </si>
+  <si>
+    <t>[613 138] ; [154  70]</t>
+  </si>
+  <si>
+    <t>[283 462] ; [ 51 168]</t>
+  </si>
+  <si>
+    <t>[450 304] ; [102 123]</t>
+  </si>
+  <si>
+    <t>[549 203] ; [134  89]</t>
+  </si>
+  <si>
+    <t>[544 208] ; [132  90]</t>
+  </si>
+  <si>
+    <t>[ 68 683] ; [  4 220]</t>
+  </si>
+  <si>
+    <t>[ 97 651] ; [ 10 214]</t>
+  </si>
+  <si>
+    <t>[424 318] ; [ 96 124]</t>
+  </si>
+  <si>
+    <t>[622 130] ; [160  62]</t>
+  </si>
+  <si>
+    <t>[295 432] ; [ 59 156]</t>
+  </si>
+  <si>
+    <t>[522 229] ; [129  95]</t>
+  </si>
+  <si>
+    <t>[279 475] ; [111 114]</t>
+  </si>
+  <si>
+    <t>[607.02680412 144.97319588] ; [175.97319588  42.02680412]</t>
+  </si>
+  <si>
+    <t>[569.15832482 184.84167518] ; [169.84167518  55.15832482]</t>
+  </si>
+  <si>
+    <t>[595.38461538 154.61538462] ; [178.61538462  46.38461538]</t>
+  </si>
+  <si>
+    <t>[606.88247423 141.11752577] ; [180.11752577  41.88247423]</t>
+  </si>
+  <si>
+    <t>[643.86516854 110.13483146] ; [192.13483146  32.86516854]</t>
+  </si>
+  <si>
+    <t>[690.01237113  56.98762887] ; [205.98762887  17.01237113]</t>
+  </si>
+  <si>
+    <t>[370.1863354 374.8136646] ; [109.8136646 111.1863354]</t>
+  </si>
+  <si>
+    <t>[545.56790123 203.43209877] ; [162.43209877  60.56790123]</t>
+  </si>
+  <si>
+    <t>[447.61715481 286.38284519] ; [135.38284519  86.61715481]</t>
+  </si>
+  <si>
+    <t>[689.66563786  59.33436214] ; [205.33436214  17.66563786]</t>
+  </si>
+  <si>
+    <t>[424.28131417 325.71868583] ; [126.71868583  97.28131417]</t>
+  </si>
+  <si>
+    <t>[310.95679012 439.04320988] ; [ 92.04320988 129.95679012]</t>
+  </si>
+  <si>
+    <t>[469.55891554 267.44108446] ; [141.44108446  80.55891554]</t>
+  </si>
+  <si>
+    <t>[355.08820513 395.91179487] ; [105.91179487 118.08820513]</t>
+  </si>
+  <si>
+    <t>[362.32198142 384.67801858] ; [107.67801858 114.32198142]</t>
+  </si>
+  <si>
+    <t>[336.51824034 384.48175966] ; [ 98.48175966 112.51824034]</t>
+  </si>
+  <si>
+    <t>[374.44025157 357.55974843] ; [113.55974843 108.44025157]</t>
+  </si>
+  <si>
+    <t>[535.27068437 218.72931563] ; [159.72931563  65.27068437]</t>
+  </si>
+  <si>
+    <t>[233.12646121 490.87353879] ; [ 69.87353879 147.12646121]</t>
+  </si>
+  <si>
+    <t>[686.1761658  57.8238342] ; [203.8238342  17.1761658]</t>
+  </si>
+  <si>
+    <t>[563.3776868 190.6223132] ; [166.6223132  56.3776868]</t>
+  </si>
+  <si>
+    <t>[387.22044728 332.77955272] ; [117.77955272 101.22044728]</t>
+  </si>
+  <si>
+    <t>[577.3381295 172.6618705] ; [171.6618705  51.3381295]</t>
+  </si>
+  <si>
+    <t>[590.78666667 160.21333333] ; [176.21333333  47.78666667]</t>
+  </si>
+  <si>
+    <t>[258.12240664 486.87759336] ; [ 75.87759336 143.12240664]</t>
+  </si>
+  <si>
+    <t>[425.13585291 328.86414709] ; [126.86414709  98.13585291]</t>
+  </si>
+  <si>
+    <t>[526.78564103 225.21435897] ; [156.21435897  66.78564103]</t>
+  </si>
+  <si>
+    <t>[521.92197125 230.07802875] ; [154.07802875  67.92197125]</t>
+  </si>
+  <si>
+    <t>[ 55.45846154 695.54153846] ; [ 16.54153846 207.45846154]</t>
+  </si>
+  <si>
+    <t>[ 82.34156379 665.65843621] ; [ 24.65843621 199.34156379]</t>
+  </si>
+  <si>
+    <t>[401.08108108 340.91891892] ; [118.91891892 101.08108108]</t>
+  </si>
+  <si>
+    <t>[603.76180698 148.23819302] ; [178.23819302  43.76180698]</t>
+  </si>
+  <si>
+    <t>[273.20382166 453.79617834] ; [ 80.79617834 134.20382166]</t>
+  </si>
+  <si>
+    <t>[501.43692308 249.56307692] ; [149.56307692  74.43692308]</t>
+  </si>
+  <si>
+    <t>[300.36772217 453.63227783] ; [ 89.63227783 135.36772217]</t>
   </si>
 </sst>
 </file>
@@ -491,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,13 +729,19 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -530,16 +752,22 @@
       <c r="E2">
         <v>380.018423</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -550,16 +778,22 @@
       <c r="E3">
         <v>123.149893</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -570,16 +804,22 @@
       <c r="E4">
         <v>73.460813</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -590,16 +830,22 @@
       <c r="E5">
         <v>58.395256</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -610,16 +856,22 @@
       <c r="E6">
         <v>50.795054</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -630,16 +882,22 @@
       <c r="E7">
         <v>47.547168</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -650,16 +908,22 @@
       <c r="E8">
         <v>47.133126</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -670,16 +934,22 @@
       <c r="E9">
         <v>45.737741</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -690,16 +960,22 @@
       <c r="E10">
         <v>44.292222</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -710,16 +986,22 @@
       <c r="E11">
         <v>43.44004</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -730,16 +1012,22 @@
       <c r="E12">
         <v>41.07115</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -750,16 +1038,22 @@
       <c r="E13">
         <v>40.518176</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -770,16 +1064,22 @@
       <c r="E14">
         <v>37.463312</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -790,16 +1090,22 @@
       <c r="E15">
         <v>29.987211</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -810,16 +1116,22 @@
       <c r="E16">
         <v>29.778362</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -830,16 +1142,22 @@
       <c r="E17">
         <v>27.593127</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -850,16 +1168,22 @@
       <c r="E18">
         <v>24.907917</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -870,16 +1194,22 @@
       <c r="E19">
         <v>23.128189</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -890,16 +1220,22 @@
       <c r="E20">
         <v>22.872166</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -910,16 +1246,22 @@
       <c r="E21">
         <v>20.501654</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -930,16 +1272,22 @@
       <c r="E22">
         <v>20.194092</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -950,16 +1298,22 @@
       <c r="E23">
         <v>19.842991</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -970,16 +1324,22 @@
       <c r="E24">
         <v>18.379797</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -990,16 +1350,22 @@
       <c r="E25">
         <v>17.040984</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1010,16 +1376,22 @@
       <c r="E26">
         <v>16.14955</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1030,16 +1402,22 @@
       <c r="E27">
         <v>14.506892</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1050,16 +1428,22 @@
       <c r="E28">
         <v>13.675876</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1070,16 +1454,22 @@
       <c r="E29">
         <v>13.392563</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1090,16 +1480,22 @@
       <c r="E30">
         <v>13.329298</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1110,16 +1506,22 @@
       <c r="E31">
         <v>12.724027</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="F31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1130,16 +1532,22 @@
       <c r="E32">
         <v>12.46411</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1150,16 +1558,22 @@
       <c r="E33">
         <v>12.262011</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1170,16 +1584,22 @@
       <c r="E34">
         <v>12.205623</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1190,16 +1610,22 @@
       <c r="E35">
         <v>11.045264</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="F35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1210,7 +1636,13 @@
       <c r="E36">
         <v>10.993368</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36">
         <v>1</v>
       </c>
     </row>
